--- a/election_votar_data/LOHAGARA/KALAUZAN/152570/152570_com_2009_male_without_photo_112_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152570/152570_com_2009_male_without_photo_112_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="41" customWidth="1" min="4" max="4"/>
     <col width="42.5" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="29.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>শাহ আলম</t>
+          <t xml:space="preserve"> শাহ আলম</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="H126" s="5" t="inlineStr">
         <is>
-          <t>আলী আহমেদ বাড়ি,৩৫৭, পূর্ব কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>আলী আহমেদ বাড়ি, ৩৫৭, পূর্ব কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="F244" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৮/১২/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G244" s="3" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="F413" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০২/০১/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G413" s="3" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>দর্জী জন্ম তারিখ: ০৮/০৫/১৯৮৮</t>
+          <t>দর্জী</t>
         </is>
       </c>
       <c r="G478" s="3" t="inlineStr">
@@ -27027,10 +27027,14 @@
       </c>
       <c r="F633" s="3" t="inlineStr">
         <is>
-          <t>ক্ষেত্রজ্ঞ তারিখ:০১/১০/১৯৯২</t>
-        </is>
-      </c>
-      <c r="G633" s="3" t="inlineStr"/>
+          <t>ক্ষেত্রজ্ঞ</t>
+        </is>
+      </c>
+      <c r="G633" s="3" t="inlineStr">
+        <is>
+          <t>০১/১০/১৯৯২</t>
+        </is>
+      </c>
       <c r="H633" s="5" t="inlineStr">
         <is>
           <t>তাহের গং বাড়ি, পূর্ব কলাউজান হরিনা, পূর্ব কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
@@ -30089,7 +30093,7 @@
       </c>
       <c r="F706" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০১/০১/২০০৪</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G706" s="3" t="inlineStr">
@@ -44159,7 +44163,7 @@
       </c>
       <c r="F1041" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০২/০৮/২০০৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1041" s="3" t="inlineStr">
@@ -44369,7 +44373,7 @@
       </c>
       <c r="F1046" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৫/০১/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1046" s="3" t="inlineStr">
@@ -44453,7 +44457,7 @@
       </c>
       <c r="F1048" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০৯/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1048" s="3" t="inlineStr">
@@ -44789,7 +44793,7 @@
       </c>
       <c r="F1056" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:২৫/০৫/১৯৮৯</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1056" s="3" t="inlineStr">
@@ -44873,7 +44877,7 @@
       </c>
       <c r="F1058" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৩/০৫/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1058" s="3" t="inlineStr">
@@ -46511,7 +46515,7 @@
       </c>
       <c r="F1097" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:০৫/০১/১৯৯০</t>
+          <t>দার্জিলিং</t>
         </is>
       </c>
       <c r="G1097" s="3" t="inlineStr">
@@ -49115,7 +49119,7 @@
       </c>
       <c r="F1159" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০৭/২০০১</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1159" s="3" t="inlineStr">
@@ -53273,7 +53277,7 @@
       </c>
       <c r="F1258" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:২২/০৮/১৯৯০</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1258" s="3" t="inlineStr">
@@ -53315,7 +53319,7 @@
       </c>
       <c r="F1259" s="3" t="inlineStr">
         <is>
-          <t>বেকার/জন্ম তারিখ:০১/০১/১৯৯৯</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G1259" s="3" t="inlineStr">
@@ -54869,10 +54873,14 @@
       </c>
       <c r="F1296" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং তারিখ: ২৫/০৮/১৯৮৪</t>
-        </is>
-      </c>
-      <c r="G1296" s="3" t="inlineStr"/>
+          <t>দার্জিলিং</t>
+        </is>
+      </c>
+      <c r="G1296" s="3" t="inlineStr">
+        <is>
+          <t>২৫/০৮/১৯৮৪</t>
+        </is>
+      </c>
       <c r="H1296" s="5" t="inlineStr">
         <is>
           <t>৭৮৫, বনিক পাড়া, পূর্ব কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
@@ -56377,7 +56385,7 @@
       </c>
       <c r="F1332" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/১২/১৯৯৯</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1332" s="3" t="inlineStr">
@@ -60829,7 +60837,7 @@
       </c>
       <c r="F1438" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক/জন্ম তারিখ:২৮/০৩/২০০২</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G1438" s="3" t="inlineStr">
@@ -67339,7 +67347,7 @@
       </c>
       <c r="F1593" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৫/০৬/২০০২</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1593" s="3" t="inlineStr">
@@ -71833,7 +71841,7 @@
       </c>
       <c r="F1700" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:১৫/০৩/১৯৬৫</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1700" s="3" t="inlineStr">
@@ -72295,7 +72303,7 @@
       </c>
       <c r="F1711" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১২/০৮/২০০১</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1711" s="3" t="inlineStr">
@@ -81955,7 +81963,7 @@
       </c>
       <c r="F1941" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০২/২০০০</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1941" s="3" t="inlineStr">
@@ -82039,7 +82047,7 @@
       </c>
       <c r="F1943" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ:০৮/০২/১৯৭৩</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1943" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/KALAUZAN/152570/152570_com_2009_male_without_photo_112_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152570/152570_com_2009_male_without_photo_112_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="41" customWidth="1" min="4" max="4"/>
     <col width="42.5" customWidth="1" min="5" max="5"/>
-    <col width="29.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> শাহ আলম</t>
+          <t>শাহ আলম</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
@@ -5743,7 +5743,7 @@
       </c>
       <c r="H126" s="5" t="inlineStr">
         <is>
-          <t>আলী আহমেদ বাড়ি, ৩৫৭, পূর্ব কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>আলী আহমেদ বাড়ি,৩৫৭, পূর্ব কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="F244" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৮/১২/২০০৩</t>
         </is>
       </c>
       <c r="G244" s="3" t="inlineStr">
@@ -17787,7 +17787,7 @@
       </c>
       <c r="F413" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০২/০১/২০০৩</t>
         </is>
       </c>
       <c r="G413" s="3" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="F478" s="3" t="inlineStr">
         <is>
-          <t>দর্জী</t>
+          <t>দর্জী জন্ম তারিখ: ০৮/০৫/১৯৮৮</t>
         </is>
       </c>
       <c r="G478" s="3" t="inlineStr">
@@ -27027,14 +27027,10 @@
       </c>
       <c r="F633" s="3" t="inlineStr">
         <is>
-          <t>ক্ষেত্রজ্ঞ</t>
-        </is>
-      </c>
-      <c r="G633" s="3" t="inlineStr">
-        <is>
-          <t>০১/১০/১৯৯২</t>
-        </is>
-      </c>
+          <t>ক্ষেত্রজ্ঞ তারিখ:০১/১০/১৯৯২</t>
+        </is>
+      </c>
+      <c r="G633" s="3" t="inlineStr"/>
       <c r="H633" s="5" t="inlineStr">
         <is>
           <t>তাহের গং বাড়ি, পূর্ব কলাউজান হরিনা, পূর্ব কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
@@ -30093,7 +30089,7 @@
       </c>
       <c r="F706" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০১/০১/২০০৪</t>
         </is>
       </c>
       <c r="G706" s="3" t="inlineStr">
@@ -44163,7 +44159,7 @@
       </c>
       <c r="F1041" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০২/০৮/২০০৩</t>
         </is>
       </c>
       <c r="G1041" s="3" t="inlineStr">
@@ -44373,7 +44369,7 @@
       </c>
       <c r="F1046" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:২৫/০১/২০০৩</t>
         </is>
       </c>
       <c r="G1046" s="3" t="inlineStr">
@@ -44457,7 +44453,7 @@
       </c>
       <c r="F1048" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১০/০৯/২০০২</t>
         </is>
       </c>
       <c r="G1048" s="3" t="inlineStr">
@@ -44793,7 +44789,7 @@
       </c>
       <c r="F1056" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:২৫/০৫/১৯৮৯</t>
         </is>
       </c>
       <c r="G1056" s="3" t="inlineStr">
@@ -44877,7 +44873,7 @@
       </c>
       <c r="F1058" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৩/০৫/২০০২</t>
         </is>
       </c>
       <c r="G1058" s="3" t="inlineStr">
@@ -46515,7 +46511,7 @@
       </c>
       <c r="F1097" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
+          <t>দার্জিলিং জন্ম তারিখ:০৫/০১/১৯৯০</t>
         </is>
       </c>
       <c r="G1097" s="3" t="inlineStr">
@@ -49119,7 +49115,7 @@
       </c>
       <c r="F1159" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০১/০৭/২০০১</t>
         </is>
       </c>
       <c r="G1159" s="3" t="inlineStr">
@@ -53277,7 +53273,7 @@
       </c>
       <c r="F1258" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:২২/০৮/১৯৯০</t>
         </is>
       </c>
       <c r="G1258" s="3" t="inlineStr">
@@ -53319,7 +53315,7 @@
       </c>
       <c r="F1259" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার/জন্ম তারিখ:০১/০১/১৯৯৯</t>
         </is>
       </c>
       <c r="G1259" s="3" t="inlineStr">
@@ -54873,14 +54869,10 @@
       </c>
       <c r="F1296" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং</t>
-        </is>
-      </c>
-      <c r="G1296" s="3" t="inlineStr">
-        <is>
-          <t>২৫/০৮/১৯৮৪</t>
-        </is>
-      </c>
+          <t>দার্জিলিং তারিখ: ২৫/০৮/১৯৮৪</t>
+        </is>
+      </c>
+      <c r="G1296" s="3" t="inlineStr"/>
       <c r="H1296" s="5" t="inlineStr">
         <is>
           <t>৭৮৫, বনিক পাড়া, পূর্ব কলাউজান, লোহাগাড়া, চট্টগ্রাম</t>
@@ -56385,7 +56377,7 @@
       </c>
       <c r="F1332" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="G1332" s="3" t="inlineStr">
@@ -60837,7 +60829,7 @@
       </c>
       <c r="F1438" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>শ্রমিক/জন্ম তারিখ:২৮/০৩/২০০২</t>
         </is>
       </c>
       <c r="G1438" s="3" t="inlineStr">
@@ -67347,7 +67339,7 @@
       </c>
       <c r="F1593" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:০৫/০৬/২০০২</t>
         </is>
       </c>
       <c r="G1593" s="3" t="inlineStr">
@@ -71841,7 +71833,7 @@
       </c>
       <c r="F1700" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:১৫/০৩/১৯৬৫</t>
         </is>
       </c>
       <c r="G1700" s="3" t="inlineStr">
@@ -72303,7 +72295,7 @@
       </c>
       <c r="F1711" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ:১২/০৮/২০০১</t>
         </is>
       </c>
       <c r="G1711" s="3" t="inlineStr">
@@ -81963,7 +81955,7 @@
       </c>
       <c r="F1941" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ:০১/০২/২০০০</t>
         </is>
       </c>
       <c r="G1941" s="3" t="inlineStr">
@@ -82047,7 +82039,7 @@
       </c>
       <c r="F1943" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ:০৮/০২/১৯৭৩</t>
         </is>
       </c>
       <c r="G1943" s="3" t="inlineStr">
